--- a/practice at home day 1.xlsx
+++ b/practice at home day 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROOPATHANGAM R\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROOPATHANGAM R\Documents\GitHub\Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D214C6-BD94-442D-B41D-C25F1B0863D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CA5FBD-7D99-4ED3-9F33-E0823A00132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EEE7DDC4-2F97-4459-8362-CCE405D5E398}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t xml:space="preserve">Question </t>
   </si>
@@ -78,9 +78,6 @@
     <t>Passed</t>
   </si>
   <si>
-    <t xml:space="preserve">It goes to the admin dashboard                 The regsitration page appears                 </t>
-  </si>
-  <si>
     <t>Test_1.1</t>
   </si>
   <si>
@@ -90,21 +87,9 @@
     <t>Test_4.1</t>
   </si>
   <si>
-    <t>Test_6.1</t>
-  </si>
-  <si>
-    <t>Test_7.1</t>
-  </si>
-  <si>
-    <t>Test_8.1</t>
-  </si>
-  <si>
     <t>As a admin,I want to login to my acconut with a valid email id and password , so that I can manage entire admin dashboard</t>
   </si>
   <si>
-    <t>1) Go to https://hospital.neohire.io/                                                                    2) Enter a valid email id                                      3)Enter a valid password                                   4)click login button</t>
-  </si>
-  <si>
     <t>Admin login id : admin password : Test@12345</t>
   </si>
   <si>
@@ -114,67 +99,46 @@
     <t>Test_2.1</t>
   </si>
   <si>
-    <t>As a admin,  I want to manage to doctor details</t>
-  </si>
-  <si>
-    <t>As a admin,  I want to manage user details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin logged in with valid credentails.The admin is directed to dashboard.The admin able to add doctor and clicks the button the form is filled and displayed  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the admin able to delete doctor details. </t>
-  </si>
-  <si>
-    <t>Admin logged in with valid credentails.The admin is directed to dashboard.The admin able to click manage users menu.Once admin clicks the delete icon a pop up laret should be displayed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the admin able to add doctor details. </t>
-  </si>
-  <si>
-    <t>As a admin,  I want to manage login details</t>
-  </si>
-  <si>
-    <t>Admin logged in with valid credentails.The admin is directed to dashboard.The admin able to click manage patient's menu.Once the admin clicks the view icon patient's detail should be displayed.</t>
-  </si>
-  <si>
-    <t>It goes to the admin dashboard                  The admin can update the information</t>
-  </si>
-  <si>
-    <t>As a admin,  I want to look at the appoingtment history</t>
-  </si>
-  <si>
     <t>Test_5.1</t>
   </si>
   <si>
-    <t>Admin logged in with valid credentails.The admin is directed to dashboard.The admin able to click manage appointment menu history. The appointment details are displayed</t>
-  </si>
-  <si>
-    <t>As a admin,  I want to search for inquires received through contact us facility</t>
-  </si>
-  <si>
-    <t>It goes to the admin dashboard                  The admin can see the read and unread queries</t>
-  </si>
-  <si>
-    <t>Admin logged in with valid credentails.The admin is directed to dashboard.The admin finds contact us queries menu with read and unread queries divisions.</t>
-  </si>
-  <si>
-    <t>As a admin,  I want to search for session logs related to doctor</t>
-  </si>
-  <si>
-    <t>Admin logged in with valid credentails.The admin is able to see session log information of doctors</t>
-  </si>
-  <si>
-    <t>As a admin,  I want to search for session logs related to users</t>
-  </si>
-  <si>
-    <t>Admin logged in with valid credentails.The admin is able to see session log information of users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It goes to the admin dashboard                 The session log page of users appears              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It goes to the admin dashboard                 The session log page of doctors appears                 </t>
+    <t>1) Go to https://carrental.neohire.io/                                                                    2) Enter a valid email id                                      3)Enter a valid password                                  4) password shold be in correct format       5)password and email id textfield are mandatory                                                                      6)click login button</t>
+  </si>
+  <si>
+    <t>As a admin,  I want to view all the details in dashboard</t>
+  </si>
+  <si>
+    <t>Admin logged in with valid credentails.The admin is directed to dashboard.The admin able to click content features inn the dashboard.Once admin clicks the button the information is displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the admin able to view the details. </t>
+  </si>
+  <si>
+    <t>As a admin,  I want to add brand detail so that I can maintain a database for the class details</t>
+  </si>
+  <si>
+    <t>Admin logged in with valid credentails.The admin is directed to create brand page.The admin is able to click the button.The form to be filled is displayed.The field is filled with correct format and the add button sholud be enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the admin able to create and add  the brand details and the view the details. </t>
+  </si>
+  <si>
+    <t>As a admin,  I want to manage the brand details so that I can update/delete the information related to the class</t>
+  </si>
+  <si>
+    <t>Admin logged in with valid credentails.The admin is directed to manage brand page.The update/delete button is enabled for each brand listed.</t>
+  </si>
+  <si>
+    <t>the admin able to update/delete the information</t>
+  </si>
+  <si>
+    <t>As a admin,  I want to manage the vehicle details so that I can delete the information related to the vehicle database</t>
+  </si>
+  <si>
+    <t>Admin logged in with valid credentails.The admin is directed to manage vehicle page.The delete button is enabled.</t>
+  </si>
+  <si>
+    <t>the admin able to delete vehicle list.</t>
   </si>
 </sst>
 </file>
@@ -549,7 +513,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,21 +555,21 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>8</v>
@@ -622,16 +586,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>8</v>
@@ -648,48 +612,48 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="169.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="249" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>10</v>
@@ -700,22 +664,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>13</v>
@@ -726,104 +690,53 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="170.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="171.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3"/>
@@ -868,11 +781,8 @@
     <hyperlink ref="B6" r:id="rId4" display="Test@3.2" xr:uid="{BA6D531A-BB36-4D0B-82D9-C80A0AF6B301}"/>
     <hyperlink ref="B7" r:id="rId5" display="Test@4.1" xr:uid="{2B878EAF-5ECD-4A11-8CE9-4A489F3EA9F7}"/>
     <hyperlink ref="B8" r:id="rId6" display="Test@4.2" xr:uid="{A46D01C6-DD8B-4681-8C4B-E476B1198B66}"/>
-    <hyperlink ref="B9" r:id="rId7" display="Test@5.1" xr:uid="{7D149A9B-08D4-4977-961F-93F7AB9304BB}"/>
-    <hyperlink ref="B10" r:id="rId8" display="Test@5.2" xr:uid="{6A1417EA-79AB-47F3-BE5D-3FE9D2E2C4F6}"/>
-    <hyperlink ref="B11" r:id="rId9" display="Test@6.1" xr:uid="{85B7302C-34CA-4F9A-A5A9-5044B0B7D5ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId10"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>